--- a/IM/202602_Service_Count_Report.xlsx
+++ b/IM/202602_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$24</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>服務次數統計表        篩選月份：202602</t>
   </si>
@@ -152,18 +152,18 @@
     <t>中和</t>
   </si>
   <si>
+    <t>抄表</t>
+  </si>
+  <si>
+    <t>Pm</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>服務</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Pm</t>
-  </si>
-  <si>
-    <t>抄表</t>
-  </si>
-  <si>
     <t>11:40:00</t>
   </si>
   <si>
@@ -207,6 +207,24 @@
   </si>
   <si>
     <t>換下8155002852 換上8155005464</t>
+  </si>
+  <si>
+    <t>16:12:00</t>
+  </si>
+  <si>
+    <t>16:48:00</t>
+  </si>
+  <si>
+    <t>THILF04770</t>
+  </si>
+  <si>
+    <t>新北市中和區安平路89-2、89-3號</t>
+  </si>
+  <si>
+    <t>中和嘉德店</t>
+  </si>
+  <si>
+    <t>Hub重置設定 已請0800檢查連線正常 HUB</t>
   </si>
   <si>
     <t>11:05:00</t>
@@ -337,6 +355,30 @@
   </si>
   <si>
     <t>湯家瑋</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>T251000056</t>
+  </si>
+  <si>
+    <t>eS-2510AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奧創資訊股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市板橋區文化路二段285號32樓</t>
+  </si>
+  <si>
+    <t>奧爾資訊多媒體</t>
+  </si>
+  <si>
+    <t>清廢粉盒</t>
   </si>
   <si>
     <t>14:45:00</t>
@@ -804,10 +846,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2026020064</v>
+        <v>2026020065</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1013,9 +1055,7 @@
       <c r="R3" s="7">
         <v>16243</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1023,10 +1063,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1037,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2026020065</v>
+        <v>2026020064</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1085,7 +1125,9 @@
       <c r="R4" s="3">
         <v>16243</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1093,10 +1135,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="3"/>
     </row>
@@ -1144,7 +1186,7 @@
         <v>48</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7">
@@ -1161,10 +1203,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1232,7 +1274,7 @@
         <v>58</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB6" s="3">
         <v>1</v>
@@ -1243,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2026020099</v>
+        <v>2026020372</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1266,8 +1308,12 @@
       <c r="I7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="L7" s="8" t="s">
         <v>54</v>
       </c>
@@ -1278,36 +1324,36 @@
         <v>63</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7">
         <v>0</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+      <c r="AA7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2026020130</v>
+        <v>2026020099</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1316,68 +1362,62 @@
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="N8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="O8" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3">
-        <v>26751</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Z8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2026020131</v>
+        <v>2026020130</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1386,34 +1426,34 @@
         <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>43</v>
@@ -1423,7 +1463,9 @@
       <c r="R9" s="7">
         <v>26751</v>
       </c>
-      <c r="S9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1431,19 +1473,21 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB9" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2026020098</v>
+        <v>2026020131</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1452,40 +1496,42 @@
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="6"/>
       <c r="O10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3">
-        <v>32400</v>
+        <v>26751</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1495,14 +1541,12 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7">
@@ -1518,35 +1562,35 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1554,7 +1598,7 @@
         <v>32400</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1563,19 +1607,21 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB11" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2026020117</v>
+        <v>2026020098</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1584,7 +1630,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>31</v>
@@ -1610,46 +1656,36 @@
       <c r="M12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3">
-        <v>2795</v>
-      </c>
+      <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>339653</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>32400</v>
+      </c>
+      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2026020118</v>
+        <v>2026020117</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1658,34 +1694,34 @@
         <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>43</v>
@@ -1697,27 +1733,33 @@
       <c r="R13" s="7">
         <v>339653</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="U13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB13" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2026020128</v>
+        <v>2026020118</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1726,42 +1768,46 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L14" s="6" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3">
+        <v>2795</v>
+      </c>
       <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>339653</v>
+      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1772,18 +1818,16 @@
         <v>92</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2026020036</v>
+        <v>2026020128</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1792,7 +1836,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>31</v>
@@ -1806,12 +1850,8 @@
       <c r="I15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="8" t="s">
         <v>54</v>
       </c>
@@ -1822,14 +1862,16 @@
         <v>97</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
         <v>0</v>
       </c>
-      <c r="S15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -1840,7 +1882,7 @@
         <v>98</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -1851,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2026020176</v>
+        <v>2026020036</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1860,42 +1902,44 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="L16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
         <v>0</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -1903,19 +1947,21 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB16" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2026020154</v>
+        <v>2026020176</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1924,48 +1970,44 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="N17" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N17" s="8"/>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7">
-        <v>16490</v>
-      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>61525</v>
-      </c>
-      <c r="S17" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T17" s="7"/>
-      <c r="U17" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
@@ -1974,18 +2016,16 @@
         <v>106</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2026020057</v>
+        <v>2026020119</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1994,48 +2034,46 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <v>20101</v>
+        <v>18535</v>
       </c>
       <c r="R18" s="3">
-        <v>36098</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>158844</v>
+      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2043,17 +2081,21 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2026020058</v>
+        <v>2026020154</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2062,66 +2104,68 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7">
-        <v>20101</v>
+        <v>16490</v>
       </c>
       <c r="R19" s="7">
-        <v>36098</v>
+        <v>61525</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
+      <c r="U19" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB19" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2026020149</v>
+        <v>2026020057</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2130,37 +2174,37 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
@@ -2169,31 +2213,27 @@
       <c r="R20" s="3">
         <v>36098</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>1</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2026020142</v>
+        <v>2026020058</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2202,90 +2242,230 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L21" s="8" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="7">
+        <v>20101</v>
+      </c>
       <c r="R21" s="7">
-        <v>0</v>
+        <v>36098</v>
       </c>
       <c r="S21" s="7"/>
-      <c r="T21" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB21" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB22" s="9">
-        <v>11</v>
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2026020149</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3">
+        <v>20101</v>
+      </c>
+      <c r="R22" s="3">
+        <v>36098</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2026020142</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202602_Service_Count_Report.xlsx
+++ b/IM/202602_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$73</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>服務次數統計表        篩選月份：202602</t>
   </si>
@@ -125,12 +125,42 @@
     <t>劉柏均</t>
   </si>
   <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>09:07:00</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>T251000061</t>
+  </si>
+  <si>
+    <t>eS-2510AC 彩色複合機</t>
+  </si>
+  <si>
+    <t>MFP商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品興營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市中和區中原街26號旁工地</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Pm</t>
+  </si>
+  <si>
     <t>2026-02-02</t>
   </si>
   <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
     <t>09:52:00</t>
   </si>
   <si>
@@ -140,9 +170,6 @@
     <t>eS-2520AC 彩色複合機</t>
   </si>
   <si>
-    <t>MFP商品</t>
-  </si>
-  <si>
     <t xml:space="preserve">漢庭營造股份有限公司 </t>
   </si>
   <si>
@@ -155,13 +182,25 @@
     <t>抄表</t>
   </si>
   <si>
-    <t>Pm</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>服務</t>
+    <t>16:16:00</t>
+  </si>
+  <si>
+    <t>16:57:00</t>
+  </si>
+  <si>
+    <t>T252000130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岳吉不動產股份有限公司 </t>
+  </si>
+  <si>
+    <t>台北市北投區義理街1號1樓</t>
+  </si>
+  <si>
+    <t>住商石牌</t>
+  </si>
+  <si>
+    <t>Pm 設定電郵</t>
   </si>
   <si>
     <t>11:40:00</t>
@@ -179,6 +218,126 @@
     <t>士林</t>
   </si>
   <si>
+    <t>15:07:00</t>
+  </si>
+  <si>
+    <t>15:36:00</t>
+  </si>
+  <si>
+    <t>T252000154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">康寧生物科技股份有限公司 </t>
+  </si>
+  <si>
+    <t>台北市北投區裕民六路122號7樓</t>
+  </si>
+  <si>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>10:06:00</t>
+  </si>
+  <si>
+    <t>T301800079</t>
+  </si>
+  <si>
+    <t>eS-3018A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虹揚印刷股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市中和區橋和路120號9樓之7</t>
+  </si>
+  <si>
+    <t>9F</t>
+  </si>
+  <si>
+    <t>Pm 一夾勾子 碳粉33趴</t>
+  </si>
+  <si>
+    <t>14:38:00</t>
+  </si>
+  <si>
+    <t>14:56:00</t>
+  </si>
+  <si>
+    <t>T302800001</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t>財團法人台北國際社區青年育樂活動中心基金會</t>
+  </si>
+  <si>
+    <t>台北市士林區天玉街26-1號</t>
+  </si>
+  <si>
+    <t>天玉街</t>
+  </si>
+  <si>
+    <t>Pm 送碳粉</t>
+  </si>
+  <si>
+    <t>10:08:00</t>
+  </si>
+  <si>
+    <t>10:32:00</t>
+  </si>
+  <si>
+    <t>T302800122</t>
+  </si>
+  <si>
+    <t>新北市中和區橋和路120號6樓</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>15:40:00</t>
+  </si>
+  <si>
+    <t>16:05:00</t>
+  </si>
+  <si>
+    <t>T552800002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eS-5528A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奎山學校財團法人 </t>
+  </si>
+  <si>
+    <t>台北市北投區明德路200號</t>
+  </si>
+  <si>
+    <t>Pm 80趴</t>
+  </si>
+  <si>
+    <t>10:55:00</t>
+  </si>
+  <si>
+    <t>11:20:00</t>
+  </si>
+  <si>
+    <t>THILF04008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市中和區立德街26巷1號及28號</t>
+  </si>
+  <si>
+    <t>中和力德店</t>
+  </si>
+  <si>
+    <t>PMQ1 7210002970</t>
+  </si>
+  <si>
     <t>14:53:00</t>
   </si>
   <si>
@@ -194,9 +353,6 @@
     <t>其他</t>
   </si>
   <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市中和區工專路38號</t>
   </si>
   <si>
@@ -230,9 +386,6 @@
     <t>11:05:00</t>
   </si>
   <si>
-    <t>11:20:00</t>
-  </si>
-  <si>
     <t>THILF05410</t>
   </si>
   <si>
@@ -248,70 +401,187 @@
     <t>吳宗鴻</t>
   </si>
   <si>
-    <t>12:56:00</t>
-  </si>
-  <si>
-    <t>13:15:00</t>
-  </si>
-  <si>
-    <t>T301800172</t>
-  </si>
-  <si>
-    <t>eS-3018A 黑白複合機</t>
-  </si>
-  <si>
-    <t xml:space="preserve">智基科技開發股份有限公司 </t>
-  </si>
-  <si>
-    <t>新北市淡水區中山路123號3樓(淡水分校)</t>
-  </si>
-  <si>
-    <t>淡水</t>
-  </si>
-  <si>
-    <t>PM抄表</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>T302800006</t>
-  </si>
-  <si>
-    <t>eS-3028A 黑白複合機</t>
-  </si>
-  <si>
-    <t xml:space="preserve">信宇顧問有限公司 </t>
-  </si>
-  <si>
-    <t>新北市淡水區民族路50巷46號3樓</t>
-  </si>
-  <si>
-    <t>11:15:00</t>
-  </si>
-  <si>
-    <t>11:58:00</t>
-  </si>
-  <si>
-    <t>T351500137</t>
-  </si>
-  <si>
-    <t>eS-3515AC 彩色複合機</t>
-  </si>
-  <si>
-    <t>華南永昌綜合証券股份有限公司-淡水?</t>
-  </si>
-  <si>
-    <t>新北市淡水區中正路28號4樓(淡水)</t>
+    <t>12:15:00</t>
+  </si>
+  <si>
+    <t>12:41:00</t>
+  </si>
+  <si>
+    <t>T252000125</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行股份有限公司林口文化分行</t>
+  </si>
+  <si>
+    <t>新北市林口區文化二路1段62-5號2F(放款部</t>
+  </si>
+  <si>
+    <t>林口文化2F放款部</t>
   </si>
   <si>
     <t>PM抄表
 送黑色碳粉 1</t>
   </si>
   <si>
+    <t>13:11:00</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>T252000153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">德森精密有限公司 </t>
+  </si>
+  <si>
+    <t>新北市林口區文化北路1段60巷108號3樓</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>T301800078</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行股份有限公司長庚分公司</t>
+  </si>
+  <si>
+    <t>桃園市龜山區復興街5號(林口長庚分行)</t>
+  </si>
+  <si>
+    <t>林口長庚分行</t>
+  </si>
+  <si>
+    <t>12:56:00</t>
+  </si>
+  <si>
+    <t>13:15:00</t>
+  </si>
+  <si>
+    <t>T301800172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">智基科技開發股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區中山路123號3樓(淡水分校)</t>
+  </si>
+  <si>
+    <t>淡水</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>T302800006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信宇顧問有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區民族路50巷46號3樓</t>
+  </si>
+  <si>
+    <t>11:29:00</t>
+  </si>
+  <si>
+    <t>T302800131</t>
+  </si>
+  <si>
+    <t>11:15:00</t>
+  </si>
+  <si>
+    <t>11:58:00</t>
+  </si>
+  <si>
+    <t>T351500137</t>
+  </si>
+  <si>
+    <t>eS-3515AC 彩色複合機</t>
+  </si>
+  <si>
+    <t>華南永昌綜合証券股份有限公司-淡水?</t>
+  </si>
+  <si>
+    <t>新北市淡水區中正路28號4樓(淡水)</t>
+  </si>
+  <si>
+    <t>14:02:00</t>
+  </si>
+  <si>
+    <t>14:17:00</t>
+  </si>
+  <si>
+    <t>T352500149</t>
+  </si>
+  <si>
+    <t>eS-3525AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東南旅行社股份有限公司 </t>
+  </si>
+  <si>
+    <t>桃園市蘆竹區忠孝東路17之3號(南崁分公司</t>
+  </si>
+  <si>
+    <t>南崁分公司</t>
+  </si>
+  <si>
+    <t>T452800047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eS-4528A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市林口區文化二路1段62-5號1F(營業部)</t>
+  </si>
+  <si>
+    <t>林口文化1F營業部</t>
+  </si>
+  <si>
+    <t>15:25:00</t>
+  </si>
+  <si>
+    <t>15:53:00</t>
+  </si>
+  <si>
+    <t>THILF04197</t>
+  </si>
+  <si>
+    <t>桃園市龜山區民生北路一段128、130、132號</t>
+  </si>
+  <si>
+    <t>龜山崇優店</t>
+  </si>
+  <si>
+    <t>PMQ1 7210002706 L90</t>
+  </si>
+  <si>
+    <t>14:40:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>THILF04272</t>
+  </si>
+  <si>
+    <t>桃園市蘆竹區南福街162、164號</t>
+  </si>
+  <si>
+    <t>蘆竹南福店</t>
+  </si>
+  <si>
+    <t>PMQ1 7210002736 L90</t>
+  </si>
+  <si>
     <t>12:30:00</t>
   </si>
   <si>
@@ -357,18 +627,12 @@
     <t>湯家瑋</t>
   </si>
   <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
     <t>16:00:00</t>
   </si>
   <si>
     <t>T251000056</t>
   </si>
   <si>
-    <t>eS-2510AC 彩色複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">奧創資訊股份有限公司 </t>
   </si>
   <si>
@@ -396,28 +660,168 @@
     <t>送四色碳粉</t>
   </si>
   <si>
+    <t>T252000102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仲誠不動產經紀有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路3段110號</t>
+  </si>
+  <si>
+    <t>三重</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>T252000136</t>
+  </si>
+  <si>
+    <t>新北市三重區德厚街76號7樓</t>
+  </si>
+  <si>
+    <t>T302800012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">捷旺宅不動產經紀有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區捷運路32號</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>T351800045</t>
+  </si>
+  <si>
+    <t>eS-3518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣善美的股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股生鮮物流)</t>
+  </si>
+  <si>
+    <t>五股生鮮物流</t>
+  </si>
+  <si>
     <t>T352500148</t>
   </si>
   <si>
-    <t>eS-3525AC 彩色複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">宏偉營造股份有限公司 </t>
   </si>
   <si>
     <t>新北市三重區光復路1段61巷26號2樓</t>
   </si>
   <si>
-    <t>三重</t>
-  </si>
-  <si>
-    <t>pm</t>
-  </si>
-  <si>
     <t>送發票</t>
   </si>
   <si>
-    <t>13:30:00</t>
+    <t>T352800011</t>
+  </si>
+  <si>
+    <t>eS-3528A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全聯實業股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區水湳街74號2樓</t>
+  </si>
+  <si>
+    <t>蘆洲北二處</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>T352800029</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號4樓(五股)</t>
+  </si>
+  <si>
+    <t>五股4樓</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>T352800030</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股檢品)</t>
+  </si>
+  <si>
+    <t>五股檢品</t>
+  </si>
+  <si>
+    <t>T352800031</t>
+  </si>
+  <si>
+    <t>新北市五股區工商路128號1樓(五股DC廠工商運輸)</t>
+  </si>
+  <si>
+    <t>五股DC廠工商運輸</t>
+  </si>
+  <si>
+    <t>T352800032</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股運輸)</t>
+  </si>
+  <si>
+    <t>五股運輸</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>T451800027</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣大哥大股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號4樓(客服)</t>
+  </si>
+  <si>
+    <t>台北客服4F申裝查核處(黑)</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>T452800032</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號4樓-2(三重湯城)</t>
+  </si>
+  <si>
+    <t>台北客服4樓-2LJ15(黑)</t>
+  </si>
+  <si>
+    <t>更換取送分輪各三</t>
+  </si>
+  <si>
+    <t>THILF05197</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區永安南路二段268之1、268之2</t>
+  </si>
+  <si>
+    <t>蘆洲鴻悅店</t>
+  </si>
+  <si>
+    <t>更換印票機
+換上8139003082
+換下8139003120</t>
   </si>
   <si>
     <t>THILF05389</t>
@@ -846,10 +1250,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2026020065</v>
+        <v>2026020421</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1042,20 +1446,22 @@
       <c r="M3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="7"/>
+      <c r="P3" s="7">
+        <v>5905</v>
+      </c>
       <c r="Q3" s="7">
-        <v>3466</v>
+        <v>11513</v>
       </c>
       <c r="R3" s="7">
-        <v>16243</v>
-      </c>
-      <c r="S3" s="7"/>
+        <v>36578</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1066,7 +1472,7 @@
         <v>41</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1089,34 +1495,34 @@
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3">
@@ -1126,7 +1532,7 @@
         <v>16243</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -1138,16 +1544,18 @@
         <v>41</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB4" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2026020121</v>
+        <v>2026020065</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1159,25 +1567,25 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>47</v>
@@ -1186,14 +1594,14 @@
         <v>48</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7">
-        <v>873</v>
+        <v>3466</v>
       </c>
       <c r="R5" s="7">
-        <v>1019</v>
+        <v>16243</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1206,18 +1614,16 @@
         <v>41</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AB5" s="7"/>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2026020008</v>
+        <v>2026020704</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1232,38 +1638,42 @@
         <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3">
+        <v>41</v>
+      </c>
       <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1271,10 +1681,10 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="3">
         <v>1</v>
@@ -1285,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2026020372</v>
+        <v>2026020121</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1297,39 +1707,41 @@
         <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="N7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="O7" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="7">
+        <v>873</v>
+      </c>
       <c r="R7" s="7">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1339,10 +1751,10 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1353,7 +1765,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2026020099</v>
+        <v>2026020540</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1368,56 +1780,62 @@
         <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="M8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>23</v>
+      </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>2328</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2026020130</v>
+        <v>2026020541</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1426,46 +1844,44 @@
         <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="N9" s="8"/>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="7">
+        <v>23</v>
+      </c>
       <c r="R9" s="7">
-        <v>26751</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>2328</v>
+      </c>
+      <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1473,21 +1889,19 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2026020131</v>
+        <v>2026020438</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1496,42 +1910,42 @@
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3">
-        <v>26751</v>
+        <v>278852</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1541,19 +1955,21 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2026020097</v>
+        <v>2026020437</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1562,43 +1978,45 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>32400</v>
+        <v>278852</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1607,21 +2025,19 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2026020098</v>
+        <v>2026020521</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1630,40 +2046,42 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="O12" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>32400</v>
+        <v>76429</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1673,19 +2091,21 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB12" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2026020117</v>
+        <v>2026020520</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1694,72 +2114,66 @@
         <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7">
-        <v>2795</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7">
-        <v>339653</v>
+        <v>76429</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T13" s="7"/>
-      <c r="U13" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2026020118</v>
+        <v>2026020441</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1768,46 +2182,46 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3">
-        <v>2795</v>
-      </c>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3">
-        <v>339653</v>
-      </c>
-      <c r="S14" s="3"/>
+        <v>29886</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1815,19 +2229,21 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB14" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2026020128</v>
+        <v>2026020442</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1836,42 +2252,44 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L15" s="8" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>29886</v>
+      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -1879,21 +2297,19 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2026020036</v>
+        <v>2026020598</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1902,44 +2318,44 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N16" s="6"/>
       <c r="O16" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>80331</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -1947,10 +2363,10 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
@@ -1961,7 +2377,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2026020176</v>
+        <v>2026020599</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1970,42 +2386,42 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L17" s="8" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N17" s="8"/>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>80331</v>
+      </c>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2013,10 +2429,10 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB17" s="7"/>
     </row>
@@ -2025,7 +2441,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2026020119</v>
+        <v>2026020448</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2034,57 +2450,55 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3">
-        <v>18535</v>
-      </c>
+      <c r="Q18" s="3"/>
       <c r="R18" s="3">
-        <v>158844</v>
-      </c>
-      <c r="S18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="Y18" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z18" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -2095,7 +2509,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2026020154</v>
+        <v>2026020008</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2104,57 +2518,55 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N19" s="8"/>
+      <c r="N19" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7">
-        <v>16490</v>
-      </c>
+      <c r="Q19" s="7"/>
       <c r="R19" s="7">
-        <v>61525</v>
+        <v>0</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB19" s="7">
         <v>1</v>
@@ -2165,7 +2577,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2026020057</v>
+        <v>2026020372</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2174,48 +2586,44 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3">
-        <v>20101</v>
-      </c>
+      <c r="Q20" s="3"/>
       <c r="R20" s="3">
-        <v>36098</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2223,17 +2631,21 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2026020058</v>
+        <v>2026020099</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2242,58 +2654,54 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7">
-        <v>20101</v>
-      </c>
+      <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <v>36098</v>
-      </c>
-      <c r="S21" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
+      <c r="Y21" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA21" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28">
@@ -2301,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2026020149</v>
+        <v>2026020469</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2310,70 +2718,68 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
-        <v>20101</v>
+        <v>1671</v>
       </c>
       <c r="R22" s="3">
-        <v>36098</v>
-      </c>
-      <c r="S22" s="3"/>
+        <v>87734</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="U22" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="V22" s="3"/>
-      <c r="W22" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2026020142</v>
+        <v>2026020470</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2382,90 +2788,3384 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="7">
+        <v>1671</v>
+      </c>
       <c r="R23" s="7">
-        <v>0</v>
+        <v>87734</v>
       </c>
       <c r="S23" s="7"/>
-      <c r="T23" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2026020474</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AA23" s="7" t="s">
+      <c r="J24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3">
+        <v>184</v>
+      </c>
+      <c r="R24" s="3">
+        <v>9852</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2026020475</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7">
+        <v>184</v>
+      </c>
+      <c r="R25" s="7">
+        <v>9852</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2026020450</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3">
+        <v>292942</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2026020451</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7">
+        <v>292942</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2026020130</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB24" s="9">
-        <v>13</v>
+      <c r="G28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3">
+        <v>26751</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2026020131</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7">
+        <v>26751</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2026020097</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3">
+        <v>32400</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2026020098</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7">
+        <v>32400</v>
+      </c>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2026020452</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
+        <v>74793</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2026020453</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7">
+        <v>74793</v>
+      </c>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2026020117</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3">
+        <v>2795</v>
+      </c>
+      <c r="R34" s="3">
+        <v>339653</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2026020118</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7">
+        <v>2795</v>
+      </c>
+      <c r="R35" s="7">
+        <v>339653</v>
+      </c>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2026020514</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3">
+        <v>3531</v>
+      </c>
+      <c r="R36" s="3">
+        <v>24314</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2026020515</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7">
+        <v>3531</v>
+      </c>
+      <c r="R37" s="7">
+        <v>24314</v>
+      </c>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2026020467</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3">
+        <v>143684</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2026020468</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7">
+        <v>143684</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2026020582</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2026020528</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2026020128</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2026020036</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2026020176</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2026020119</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7">
+        <v>18535</v>
+      </c>
+      <c r="R45" s="7">
+        <v>158844</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2026020154</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N46" s="6"/>
+      <c r="O46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3">
+        <v>16490</v>
+      </c>
+      <c r="R46" s="3">
+        <v>61525</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2026020481</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7">
+        <v>1300</v>
+      </c>
+      <c r="R47" s="7">
+        <v>19500</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2026020482</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2026020497</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7">
+        <v>311</v>
+      </c>
+      <c r="R49" s="7">
+        <v>2587</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2026020498</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3">
+        <v>311</v>
+      </c>
+      <c r="R50" s="3">
+        <v>2587</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2026020419</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="N51" s="8"/>
+      <c r="O51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7">
+        <v>58000</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2026020420</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="N52" s="6"/>
+      <c r="O52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
+        <v>58000</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2026020491</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7">
+        <v>119507</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2026020492</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
+        <v>119507</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB54" s="3"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2026020057</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7">
+        <v>20101</v>
+      </c>
+      <c r="R55" s="7">
+        <v>36098</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2026020058</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3">
+        <v>20101</v>
+      </c>
+      <c r="R56" s="3">
+        <v>36098</v>
+      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2026020149</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7">
+        <v>20101</v>
+      </c>
+      <c r="R57" s="7">
+        <v>36098</v>
+      </c>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2026020518</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3">
+        <v>18968</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2026020519</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7">
+        <v>18968</v>
+      </c>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB59" s="7"/>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2026020489</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3">
+        <v>12037</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2026020490</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7">
+        <v>12037</v>
+      </c>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB61" s="7"/>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2026020495</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3">
+        <v>48532</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2026020496</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7">
+        <v>48532</v>
+      </c>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB63" s="7"/>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2026020493</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3">
+        <v>109150</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2026020494</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7">
+        <v>109150</v>
+      </c>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB65" s="7"/>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2026020485</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
+        <v>80705</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2026020486</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7">
+        <v>80705</v>
+      </c>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB67" s="7"/>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2026020583</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
+        <v>39</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2026020584</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7">
+        <v>39</v>
+      </c>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB69" s="7"/>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2026020722</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
+        <v>262383</v>
+      </c>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2026020414</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2026020142</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB73" s="9">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202602_Service_Count_Report.xlsx
+++ b/IM/202602_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$80</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>服務次數統計表        篩選月份：202602</t>
   </si>
@@ -158,12 +158,27 @@
     <t>Pm</t>
   </si>
   <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>09:52:00</t>
+  </si>
+  <si>
+    <t>T251000083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣佳耐美電子科技股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市中和區員山路512-7號3樓</t>
+  </si>
+  <si>
+    <t>抄表</t>
+  </si>
+  <si>
     <t>2026-02-02</t>
   </si>
   <si>
-    <t>09:52:00</t>
-  </si>
-  <si>
     <t>T252000089</t>
   </si>
   <si>
@@ -177,9 +192,6 @@
   </si>
   <si>
     <t>中和</t>
-  </si>
-  <si>
-    <t>抄表</t>
   </si>
   <si>
     <t>16:16:00</t>
@@ -660,6 +672,15 @@
     <t>送四色碳粉</t>
   </si>
   <si>
+    <t>T252000086</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街79巷旁工地</t>
+  </si>
+  <si>
+    <t>華固慕川</t>
+  </si>
+  <si>
     <t>T252000102</t>
   </si>
   <si>
@@ -675,6 +696,15 @@
     <t>pm</t>
   </si>
   <si>
+    <t>T252000113</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街與元信一街交叉口</t>
+  </si>
+  <si>
+    <t>華固織幸</t>
+  </si>
+  <si>
     <t>T252000136</t>
   </si>
   <si>
@@ -768,6 +798,12 @@
     <t>五股DC廠工商運輸</t>
   </si>
   <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>OD OD刮 回收刮片 上熱</t>
+  </si>
+  <si>
     <t>T352800032</t>
   </si>
   <si>
@@ -808,6 +844,18 @@
   </si>
   <si>
     <t>更換取送分輪各三</t>
+  </si>
+  <si>
+    <t>THILF03052</t>
+  </si>
+  <si>
+    <t>新北市新莊區自信街77號+75巷2號</t>
+  </si>
+  <si>
+    <t>新莊莊玲店</t>
+  </si>
+  <si>
+    <t>現場測試正常</t>
   </si>
   <si>
     <t>THILF05197</t>
@@ -1250,10 +1298,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB73"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1483,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2026020064</v>
+        <v>2026020776</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1507,33 +1555,31 @@
         <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6"/>
+      <c r="O4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3">
+        <v>191</v>
+      </c>
       <c r="Q4" s="3">
-        <v>3466</v>
+        <v>10207</v>
       </c>
       <c r="R4" s="3">
-        <v>16243</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>55910</v>
+      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1555,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2026020065</v>
+        <v>2026020064</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1567,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>33</v>
@@ -1576,25 +1622,25 @@
         <v>43</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7">
@@ -1603,7 +1649,9 @@
       <c r="R5" s="7">
         <v>16243</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -1616,14 +1664,16 @@
       <c r="AA5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="7"/>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2026020704</v>
+        <v>2026020065</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1635,45 +1685,43 @@
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3">
-        <v>41</v>
+        <v>3466</v>
       </c>
       <c r="R6" s="3">
-        <v>391</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>16243</v>
+      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1681,21 +1729,19 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB6" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2026020121</v>
+        <v>2026020704</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1707,43 +1753,45 @@
         <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7">
-        <v>873</v>
+        <v>41</v>
       </c>
       <c r="R7" s="7">
-        <v>1019</v>
-      </c>
-      <c r="S7" s="7"/>
+        <v>391</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -1751,7 +1799,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AA7" s="7" t="s">
         <v>40</v>
@@ -1765,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2026020540</v>
+        <v>2026020121</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1777,43 +1825,43 @@
         <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="6"/>
       <c r="O8" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3">
-        <v>23</v>
+        <v>873</v>
       </c>
       <c r="R8" s="3">
-        <v>2328</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1835,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2026020541</v>
+        <v>2026020540</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1850,29 +1898,29 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7">
@@ -1881,7 +1929,9 @@
       <c r="R9" s="7">
         <v>2328</v>
       </c>
-      <c r="S9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1894,14 +1944,16 @@
       <c r="AA9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB9" s="7"/>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2026020438</v>
+        <v>2026020541</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1916,36 +1968,36 @@
         <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3">
+        <v>23</v>
+      </c>
       <c r="R10" s="3">
-        <v>278852</v>
+        <v>2328</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1955,14 +2007,12 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB10" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7">
@@ -1984,28 +2034,28 @@
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -2025,19 +2075,21 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB11" s="7"/>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2026020521</v>
+        <v>2026020438</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -2052,36 +2104,36 @@
         <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>76429</v>
+        <v>278852</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2091,14 +2143,12 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB12" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7">
@@ -2120,28 +2170,28 @@
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>39</v>
@@ -2161,19 +2211,21 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2026020441</v>
+        <v>2026020521</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2188,40 +2240,38 @@
         <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3">
-        <v>29886</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>76429</v>
+      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2229,21 +2279,19 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB14" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2026020442</v>
+        <v>2026020441</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2258,38 +2306,40 @@
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
         <v>29886</v>
       </c>
-      <c r="S15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -2302,14 +2352,16 @@
       <c r="AA15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2026020598</v>
+        <v>2026020442</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2324,38 +2376,38 @@
         <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="N16" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="O16" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>80331</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>29886</v>
+      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2363,21 +2415,19 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB16" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2026020599</v>
+        <v>2026020598</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2392,36 +2442,38 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
         <v>80331</v>
       </c>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2429,19 +2481,21 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB17" s="7"/>
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2026020448</v>
+        <v>2026020599</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2456,60 +2510,56 @@
         <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="K18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="M18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="N18" s="6"/>
       <c r="O18" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>80331</v>
+      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB18" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2026020008</v>
+        <v>2026020448</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2521,49 +2571,49 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="M19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="N19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
         <v>0</v>
       </c>
-      <c r="S19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z19" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>40</v>
@@ -2577,7 +2627,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2026020372</v>
+        <v>2026020008</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2589,34 +2639,34 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="N20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2631,7 +2681,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>40</v>
@@ -2645,7 +2695,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2026020099</v>
+        <v>2026020372</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2657,59 +2707,63 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="O21" s="7" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
         <v>0</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2026020469</v>
+        <v>2026020099</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2718,58 +2772,52 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="N22" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3">
-        <v>1671</v>
-      </c>
+      <c r="Q22" s="3"/>
       <c r="R22" s="3">
-        <v>87734</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="Y22" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z22" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2779,7 +2827,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2026020470</v>
+        <v>2026020469</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2788,37 +2836,37 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7">
@@ -2827,15 +2875,19 @@
       <c r="R23" s="7">
         <v>87734</v>
       </c>
-      <c r="S23" s="7"/>
+      <c r="S23" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
+      <c r="U23" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
@@ -2845,7 +2897,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2026020474</v>
+        <v>2026020470</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2854,46 +2906,46 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N24" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="O24" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
-        <v>184</v>
+        <v>1671</v>
       </c>
       <c r="R24" s="3">
-        <v>9852</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>87734</v>
+      </c>
+      <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -2901,21 +2953,17 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2026020475</v>
+        <v>2026020474</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2924,35 +2972,35 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7">
@@ -2961,7 +3009,9 @@
       <c r="R25" s="7">
         <v>9852</v>
       </c>
-      <c r="S25" s="7"/>
+      <c r="S25" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2969,19 +3019,21 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB25" s="7"/>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2026020450</v>
+        <v>2026020475</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2990,46 +3042,44 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>141</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N26" s="6"/>
       <c r="O26" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="3">
+        <v>184</v>
+      </c>
       <c r="R26" s="3">
-        <v>292942</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>9852</v>
+      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -3037,9 +3087,11 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA26" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28">
@@ -3047,7 +3099,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2026020451</v>
+        <v>2026020450</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3056,44 +3108,46 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
         <v>292942</v>
       </c>
-      <c r="S27" s="7"/>
+      <c r="S27" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -3101,7 +3155,7 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
@@ -3111,7 +3165,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2026020130</v>
+        <v>2026020451</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3120,46 +3174,44 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="O28" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>26751</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>292942</v>
+      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3167,21 +3219,17 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2026020131</v>
+        <v>2026020130</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3190,44 +3238,46 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
         <v>26751</v>
       </c>
-      <c r="S29" s="7"/>
+      <c r="S29" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3235,19 +3285,21 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB29" s="7"/>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2026020097</v>
+        <v>2026020131</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3256,44 +3308,44 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="N30" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="N30" s="6"/>
       <c r="O30" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>32400</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>26751</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3301,21 +3353,19 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2026020098</v>
+        <v>2026020097</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3324,42 +3374,44 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
         <v>32400</v>
       </c>
-      <c r="S31" s="7"/>
+      <c r="S31" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3367,19 +3419,21 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB31" s="7"/>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2026020452</v>
+        <v>2026020098</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3388,46 +3442,42 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>153</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>141</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N32" s="6"/>
       <c r="O32" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>74793</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>32400</v>
+      </c>
+      <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3435,9 +3485,11 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA32" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28">
@@ -3445,7 +3497,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2026020453</v>
+        <v>2026020452</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3454,44 +3506,46 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
         <v>74793</v>
       </c>
-      <c r="S33" s="7"/>
+      <c r="S33" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3499,7 +3553,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
@@ -3509,7 +3563,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2026020117</v>
+        <v>2026020453</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3518,65 +3572,55 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3">
-        <v>2795</v>
-      </c>
+      <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>339653</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>74793</v>
+      </c>
+      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
@@ -3592,37 +3636,37 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7">
@@ -3639,19 +3683,21 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB35" s="7"/>
+      <c r="AB35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2026020514</v>
+        <v>2026020117</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3660,70 +3706,70 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3">
-        <v>3531</v>
+        <v>2795</v>
       </c>
       <c r="R36" s="3">
-        <v>24314</v>
+        <v>339653</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+      <c r="U36" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB36" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2026020515</v>
+        <v>2026020514</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3732,37 +3778,37 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7">
@@ -3771,7 +3817,9 @@
       <c r="R37" s="7">
         <v>24314</v>
       </c>
-      <c r="S37" s="7"/>
+      <c r="S37" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -3779,19 +3827,21 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB37" s="7"/>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2026020467</v>
+        <v>2026020515</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3800,28 +3850,28 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>169</v>
@@ -3830,28 +3880,28 @@
         <v>170</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" s="3">
+        <v>3531</v>
+      </c>
       <c r="R38" s="3">
-        <v>143684</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>24314</v>
+      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA38" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28">
@@ -3859,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2026020468</v>
+        <v>2026020467</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3868,52 +3918,56 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <v>143684</v>
       </c>
-      <c r="S39" s="7"/>
+      <c r="S39" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
+      <c r="U39" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
@@ -3923,7 +3977,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2026020582</v>
+        <v>2026020468</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3932,42 +3986,44 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="K40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M40" s="6" t="s">
+      <c r="N40" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="O40" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>0</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>143684</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3975,21 +4031,17 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2026020528</v>
+        <v>2026020582</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3998,30 +4050,30 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>39</v>
@@ -4041,7 +4093,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>40</v>
@@ -4055,7 +4107,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2026020128</v>
+        <v>2026020528</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4064,30 +4116,30 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>39</v>
@@ -4107,7 +4159,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>40</v>
@@ -4121,7 +4173,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2026020036</v>
+        <v>2026020128</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4130,44 +4182,42 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M43" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="N43" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="O43" s="7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
         <v>0</v>
       </c>
-      <c r="S43" s="7"/>
+      <c r="S43" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4175,7 +4225,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>40</v>
@@ -4189,7 +4239,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2026020176</v>
+        <v>2026020036</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4198,42 +4248,44 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="L44" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4241,19 +4293,21 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB44" s="3"/>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2026020119</v>
+        <v>2026020176</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4262,46 +4316,42 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N45" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="O45" s="7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="P45" s="7"/>
-      <c r="Q45" s="7">
-        <v>18535</v>
-      </c>
+      <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>158844</v>
-      </c>
-      <c r="S45" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4309,21 +4359,19 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB45" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2026020154</v>
+        <v>2026020119</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4332,54 +4380,54 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="M46" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N46" s="6"/>
       <c r="O46" s="3" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3">
-        <v>16490</v>
+        <v>18535</v>
       </c>
       <c r="R46" s="3">
-        <v>61525</v>
+        <v>158844</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>40</v>
@@ -4393,7 +4441,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2026020481</v>
+        <v>2026020154</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4402,22 +4450,22 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>209</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
@@ -4428,30 +4476,28 @@
       <c r="M47" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="N47" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="N47" s="8"/>
       <c r="O47" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7">
-        <v>1300</v>
+        <v>16490</v>
       </c>
       <c r="R47" s="7">
-        <v>19500</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>61525</v>
+      </c>
+      <c r="S47" s="7"/>
       <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
+      <c r="U47" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>40</v>
@@ -4465,7 +4511,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2026020482</v>
+        <v>2026020761</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4474,46 +4520,50 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="I48" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P48" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="P48" s="3">
+        <v>2006</v>
+      </c>
       <c r="Q48" s="3">
-        <v>1300</v>
+        <v>2997</v>
       </c>
       <c r="R48" s="3">
-        <v>19500</v>
-      </c>
-      <c r="S48" s="3"/>
+        <v>10115</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4521,19 +4571,21 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB48" s="3"/>
+      <c r="AB48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2026020497</v>
+        <v>2026020762</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4542,48 +4594,48 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M49" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="N49" s="8" t="s">
-        <v>212</v>
-      </c>
       <c r="O49" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P49" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="P49" s="7">
+        <v>2006</v>
+      </c>
       <c r="Q49" s="7">
-        <v>311</v>
+        <v>2997</v>
       </c>
       <c r="R49" s="7">
-        <v>2587</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>10115</v>
+      </c>
+      <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4591,21 +4643,19 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB49" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB49" s="7"/>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2026020498</v>
+        <v>2026020481</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4614,46 +4664,48 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3">
-        <v>311</v>
+        <v>1300</v>
       </c>
       <c r="R50" s="3">
-        <v>2587</v>
-      </c>
-      <c r="S50" s="3"/>
+        <v>19500</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4661,19 +4713,21 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB50" s="3"/>
+      <c r="AB50" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2026020419</v>
+        <v>2026020482</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4682,22 +4736,22 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>216</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
@@ -4708,18 +4762,20 @@
       <c r="M51" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="N51" s="8"/>
+      <c r="N51" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="O51" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
+      <c r="Q51" s="7">
+        <v>1300</v>
+      </c>
       <c r="R51" s="7">
-        <v>58000</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>19500</v>
+      </c>
+      <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4727,21 +4783,19 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB51" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2026020420</v>
+        <v>2026020763</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4750,42 +4804,50 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="N52" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="O52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="P52" s="3">
+        <v>203</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>1130</v>
+      </c>
       <c r="R52" s="3">
-        <v>58000</v>
-      </c>
-      <c r="S52" s="3"/>
+        <v>5546</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4793,19 +4855,21 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB52" s="3"/>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2026020491</v>
+        <v>2026020764</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4814,46 +4878,48 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="N53" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="N53" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="O53" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="P53" s="7">
+        <v>203</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>1130</v>
+      </c>
       <c r="R53" s="7">
-        <v>119507</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>5546</v>
+      </c>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -4861,9 +4927,11 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA53" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
@@ -4871,7 +4939,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2026020492</v>
+        <v>2026020497</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4880,44 +4948,48 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="Q54" s="3">
+        <v>311</v>
+      </c>
       <c r="R54" s="3">
-        <v>119507</v>
-      </c>
-      <c r="S54" s="3"/>
+        <v>2587</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -4925,19 +4997,21 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB54" s="3"/>
+      <c r="AB54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2026020057</v>
+        <v>2026020498</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4946,48 +5020,46 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7">
-        <v>20101</v>
+        <v>311</v>
       </c>
       <c r="R55" s="7">
-        <v>36098</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>2587</v>
+      </c>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -4995,9 +5067,11 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA55" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="AA55" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
@@ -5005,7 +5079,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2026020058</v>
+        <v>2026020420</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5014,44 +5088,40 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N56" s="6"/>
       <c r="O56" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3">
-        <v>20101</v>
-      </c>
+      <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>36098</v>
+        <v>58000</v>
       </c>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
@@ -5061,19 +5131,21 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AA56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB56" s="3"/>
+      <c r="AB56" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2026020149</v>
+        <v>2026020419</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5082,70 +5154,64 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>212</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N57" s="8"/>
       <c r="O57" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P57" s="7"/>
-      <c r="Q57" s="7">
-        <v>20101</v>
-      </c>
+      <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>36098</v>
-      </c>
-      <c r="S57" s="7"/>
+        <v>58000</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
-      <c r="W57" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB57" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2026020518</v>
+        <v>2026020491</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5154,34 +5220,34 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>39</v>
@@ -5189,7 +5255,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>18968</v>
+        <v>119507</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>40</v>
@@ -5201,7 +5267,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
@@ -5211,7 +5277,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2026020519</v>
+        <v>2026020492</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5220,42 +5286,42 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>18968</v>
+        <v>119507</v>
       </c>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -5265,7 +5331,7 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AA59" s="7" t="s">
         <v>40</v>
@@ -5277,7 +5343,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2026020489</v>
+        <v>2026020057</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5286,42 +5352,44 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>235</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
+      <c r="Q60" s="3">
+        <v>20101</v>
+      </c>
       <c r="R60" s="3">
-        <v>12037</v>
+        <v>36098</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>40</v>
@@ -5333,7 +5401,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
@@ -5343,7 +5411,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2026020490</v>
+        <v>2026020058</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5352,42 +5420,44 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>235</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
+      <c r="Q61" s="7">
+        <v>20101</v>
+      </c>
       <c r="R61" s="7">
-        <v>12037</v>
+        <v>36098</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -5397,7 +5467,7 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>40</v>
@@ -5409,7 +5479,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2026020495</v>
+        <v>2026020149</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5418,64 +5488,70 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+      <c r="Q62" s="3">
+        <v>20101</v>
+      </c>
       <c r="R62" s="3">
-        <v>48532</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>36098</v>
+      </c>
+      <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
+      <c r="W62" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2026020496</v>
+        <v>2026020518</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5484,44 +5560,46 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>239</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>48532</v>
-      </c>
-      <c r="S63" s="7"/>
+        <v>18968</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -5529,11 +5607,9 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA63" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
@@ -5541,7 +5617,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2026020493</v>
+        <v>2026020519</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5550,46 +5626,44 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M64" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N64" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="N64" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="O64" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>109150</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>18968</v>
+      </c>
+      <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -5597,9 +5671,11 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA64" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
@@ -5607,7 +5683,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2026020494</v>
+        <v>2026020489</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5616,44 +5692,46 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>109150</v>
-      </c>
-      <c r="S65" s="7"/>
+        <v>12037</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -5661,11 +5739,9 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA65" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
@@ -5673,7 +5749,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2026020485</v>
+        <v>2026020490</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5682,28 +5758,28 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>245</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>246</v>
@@ -5712,16 +5788,14 @@
         <v>247</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>80705</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>12037</v>
+      </c>
+      <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5729,9 +5803,11 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA66" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
@@ -5739,7 +5815,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2026020486</v>
+        <v>2026020495</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5748,44 +5824,46 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>80705</v>
-      </c>
-      <c r="S67" s="7"/>
+        <v>48532</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5793,11 +5871,9 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA67" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
@@ -5805,7 +5881,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2026020583</v>
+        <v>2026020496</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5814,7 +5890,7 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>31</v>
@@ -5823,37 +5899,35 @@
         <v>248</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>249</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="N68" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="M68" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="O68" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>39</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>48532</v>
+      </c>
+      <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -5861,9 +5935,11 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA68" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28">
@@ -5871,7 +5947,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2026020584</v>
+        <v>2026020493</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -5880,44 +5956,46 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>39</v>
-      </c>
-      <c r="S69" s="7"/>
+        <v>109150</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -5925,11 +6003,9 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA69" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="1:28">
@@ -5937,7 +6013,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2026020722</v>
+        <v>2026020494</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -5946,42 +6022,42 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>262383</v>
+        <v>109150</v>
       </c>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
@@ -5991,21 +6067,19 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB70" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="7">
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2026020414</v>
+        <v>2026020760</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6014,42 +6088,42 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>0</v>
+        <v>109150</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -6057,9 +6131,11 @@
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
+      <c r="Y71" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z71" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>40</v>
@@ -6073,7 +6149,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2026020142</v>
+        <v>2026020485</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6082,30 +6158,34 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+        <v>257</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L72" s="6" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>39</v>
@@ -6113,59 +6193,523 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>80705</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2026020486</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7">
+        <v>80705</v>
+      </c>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB73" s="7"/>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2026020583</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3">
+        <v>39</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2026020584</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7">
+        <v>39</v>
+      </c>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA75" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB75" s="7"/>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2026020722</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="9" t="s">
+      <c r="I76" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AB73" s="9">
-        <v>30</v>
+      <c r="J76" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3">
+        <v>262383</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2026020765</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA77" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2026020414</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2026020142</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA79" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB80" s="9">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
